--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\RPA\KR\Ulsan\OGC\robot999\SGS_RPA_KR_Ulsan_OGC_5_Navarik_Draft\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C28A8-7ACF-44D4-941A-F16EFF3D2248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C720223-671B-4A80-B6A4-90C8588A83F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,9 +647,6 @@
     <t>navarikURL</t>
   </si>
   <si>
-    <t>\\10.153.1.33\KR_Automation\RPA\KR\Ulsan\OGC</t>
-  </si>
-  <si>
     <t>hyunjin.kim@sgs.com</t>
   </si>
   <si>
@@ -669,6 +666,10 @@
   </si>
   <si>
     <t>Password_8</t>
+  </si>
+  <si>
+    <t>\\10.153.4.98\KR_Automation\RPA\KR\Ulsan\OGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -771,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -794,7 +795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1100,9 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1131,7 +1129,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>75</v>
@@ -1159,7 +1157,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" t="s">
@@ -1171,7 +1169,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>64</v>
@@ -1185,7 +1183,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
@@ -1197,7 +1195,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>65</v>
@@ -1227,9 +1225,9 @@
         <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1242,10 +1240,10 @@
         <v>72</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1253,7 +1251,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -1274,11 +1272,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{5877BFAD-00A5-4EB6-9469-7DE16C99758A}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
